--- a/biology/Botanique/Erithalis/Erithalis.xlsx
+++ b/biology/Botanique/Erithalis/Erithalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erithalis est un genre de plante de la famille des Rubiaceae. On rencontre ce genre de la Floride à l'Amérique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erithalis est un genre de plante de la famille des Rubiaceae. On rencontre ce genre de la Floride à l'Amérique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2015) :
 Erithalis angustifolia DC.
 Erithalis diffusa Correll
 Erithalis fruticosa L.
@@ -522,10 +536,10 @@
 Erithalis quadrangularis Krug &amp; Urb.
 Erithalis salmeoides Correll
 Erithalis vacciniifolia (Griseb.) C.Wright
-Selon ITIS      (2 novembre 2015)[4] :
+Selon ITIS      (2 novembre 2015) :
 Erithalis fruticosa L.
 Erithalis odorifera Jacq.
-Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (2 novembre 2015) :
 Erithalis angustifolia DC. (1830)
 Erithalis diffusa Correll (1977)
 Erithalis fruticosa L., Syst. Nat. ed. 10 (1759)
@@ -534,7 +548,7 @@
 Erithalis quadrangularis Krug &amp; Urb. (1897)
 Erithalis salmeoides Correll (1977)
 Erithalis vacciniifolia (Griseb.) C.Wright (1869)
-Selon NCBI  (2 novembre 2015)[6] :
+Selon NCBI  (2 novembre 2015) :
 Erithalis diffusa
 Erithalis fruticosa
 Erithalis harrisii
@@ -542,7 +556,7 @@
 Erithalis quadrangularis
 Erithalis salmeoides
 Erithalis vacciniifolia
-Selon The Plant List            (2 novembre 2015)[7] :
+Selon The Plant List            (2 novembre 2015) :
 Erithalis angustifolia DC.
 Erithalis diffusa Correll
 Erithalis fruticosa L.
@@ -551,7 +565,7 @@
 Erithalis quadrangularis Krug &amp; Urb.
 Erithalis salmeoides Correll
 Erithalis vacciniifolia (Griseb.) C.Wright
-Selon Tropicos                                           (2 novembre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Erithalis acuminata Krug &amp; Urb.
 Erithalis angustifolia DC.
 Erithalis cymosa G. Forst. ex Spreng.
